--- a/2024_06_14_電気伝導度の温度依存性/data/0614_data.xlsx
+++ b/2024_06_14_電気伝導度の温度依存性/data/0614_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiang\Documents\latex\TUS_B3_reports\2024_06_14_電気伝導度の温度依存性\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\codes\TUS\B3\レポート\2024_06_14_電気伝導度の温度依存性\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EA4548-B0E6-4A5E-BA4F-44762FE64760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0B27ED-116B-4B67-9671-A242D84509CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1665" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="n-Ge" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -643,7 +643,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
+    <numFmt numFmtId="176" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1312,7 +1312,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9687,9 +9687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
